--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -858,7 +858,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -866,34 +866,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6313,7 +6314,7 @@
         <v>87</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
@@ -6333,7 +6334,7 @@
         <v>89</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
@@ -6373,7 +6374,7 @@
         <v>93</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275">
@@ -6773,7 +6774,7 @@
         <v>182</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
@@ -7999,273 +8000,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30F8DBD-E9C8-4ACD-9EC8-28992F077326}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3A4C59-6AAE-4917-950F-7A82104FAD3F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B10C714-0825-4A3D-B499-DDE29CC2E7AE}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="273">
   <si>
     <t>Sezione</t>
   </si>
@@ -89,6 +89,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>62-bis</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -633,6 +636,9 @@
   </si>
   <si>
     <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -883,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1538,60 +1544,60 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1839,19 +1845,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1939,59 +1945,59 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1999,19 +2005,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2079,99 +2085,99 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2239,79 +2245,79 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -2319,39 +2325,39 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2379,59 +2385,59 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2519,99 +2525,99 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2679,79 +2685,79 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
@@ -2759,39 +2765,39 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2819,39 +2825,39 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -2899,299 +2905,299 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3219,19 +3225,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3259,19 +3265,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3279,19 +3285,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3299,19 +3305,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3339,299 +3345,299 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3639,19 +3645,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3659,19 +3665,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3679,19 +3685,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -3699,19 +3705,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3719,19 +3725,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -3739,19 +3745,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -3759,19 +3765,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -3779,299 +3785,299 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
@@ -4079,19 +4085,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4099,19 +4105,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4119,19 +4125,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4139,19 +4145,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
@@ -4159,19 +4165,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4179,19 +4185,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>16</v>
@@ -4199,19 +4205,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
@@ -4219,299 +4225,299 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>16</v>
@@ -4519,19 +4525,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -4539,19 +4545,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
@@ -4559,19 +4565,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>16</v>
@@ -4579,39 +4585,39 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4619,19 +4625,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4639,19 +4645,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4659,19 +4665,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4679,19 +4685,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4699,19 +4705,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4719,19 +4725,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4739,19 +4745,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4759,19 +4765,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4779,39 +4785,39 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>18</v>
@@ -4819,19 +4825,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>18</v>
@@ -4839,39 +4845,39 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4879,19 +4885,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4899,19 +4905,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4919,19 +4925,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4939,19 +4945,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4959,19 +4965,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4979,7 +4985,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>168</v>
@@ -4988,10 +4994,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4999,19 +5005,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5019,7 +5025,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>171</v>
@@ -5028,10 +5034,10 @@
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5039,19 +5045,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5059,19 +5065,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5079,39 +5085,39 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F210" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>19</v>
@@ -5119,39 +5125,39 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5159,99 +5165,99 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F214" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F216" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5259,19 +5265,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5279,19 +5285,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5299,19 +5305,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5319,19 +5325,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5339,19 +5345,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5359,7 +5365,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>168</v>
@@ -5368,10 +5374,10 @@
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5379,19 +5385,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5399,7 +5405,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>171</v>
@@ -5408,10 +5414,10 @@
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5419,19 +5425,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5439,19 +5445,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5459,39 +5465,39 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -5499,19 +5505,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -5519,39 +5525,39 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F232" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5559,19 +5565,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5579,19 +5585,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5599,39 +5605,39 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E236" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>20</v>
@@ -5639,19 +5645,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>20</v>
@@ -5659,39 +5665,39 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F239" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5699,19 +5705,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="E241" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5719,19 +5725,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="E242" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5742,36 +5748,36 @@
         <v>198</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>21</v>
@@ -5779,19 +5785,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>21</v>
@@ -5799,39 +5805,39 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F246" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5839,19 +5845,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5859,19 +5865,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5879,39 +5885,39 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>22</v>
@@ -5919,19 +5925,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>22</v>
@@ -5939,39 +5945,39 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5979,19 +5985,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5999,19 +6005,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -6019,39 +6025,39 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E257" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>23</v>
@@ -6059,19 +6065,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>23</v>
@@ -6079,39 +6085,39 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F260" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6119,19 +6125,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6139,19 +6145,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6159,47 +6165,47 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E264" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="F265" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>210</v>
@@ -6208,18 +6214,18 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>212</v>
@@ -6228,18 +6234,18 @@
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>214</v>
@@ -6248,30 +6254,30 @@
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6279,7 +6285,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>219</v>
@@ -6288,7 +6294,7 @@
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>220</v>
@@ -6299,19 +6305,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6319,59 +6325,59 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F273" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6379,39 +6385,39 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F275" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6419,19 +6425,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6439,19 +6445,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6459,19 +6465,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6479,19 +6485,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6499,19 +6505,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6519,19 +6525,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6539,19 +6545,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6559,19 +6565,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6579,19 +6585,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6599,19 +6605,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6619,19 +6625,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6639,19 +6645,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6659,19 +6665,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6679,19 +6685,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6699,19 +6705,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6719,19 +6725,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6739,19 +6745,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6759,19 +6765,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6779,39 +6785,39 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F295" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6819,19 +6825,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6839,19 +6845,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6859,19 +6865,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6879,10 +6885,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -6891,30 +6897,30 @@
         <v>224</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302">
@@ -6922,96 +6928,96 @@
         <v>225</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F304" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F305" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -7019,19 +7025,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7039,19 +7045,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7059,10 +7065,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -7071,27 +7077,27 @@
         <v>228</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>16</v>
@@ -7099,79 +7105,79 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E311" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F311" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F312" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F313" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7179,19 +7185,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7199,19 +7205,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7219,30 +7225,30 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -7251,504 +7257,504 @@
         <v>234</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E320" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F320" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E321" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F321" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E322" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F322" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E323" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C323" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F323" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F324" s="2" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F325" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E326" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F326" s="2" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F327" s="2" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C328" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F328" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F329" s="2" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F330" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F331" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F332" s="2" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E333" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C333" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F333" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E334" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F334" s="2" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F335" s="2" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E336" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F336" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E337" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F337" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E338" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F338" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E339" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F339" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F340" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E342" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E342" s="2" t="s">
+      <c r="F342" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>246</v>
@@ -7759,16 +7765,16 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>248</v>
@@ -7779,7 +7785,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>249</v>
@@ -7788,7 +7794,7 @@
         <v>17</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>250</v>
@@ -7799,7 +7805,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>251</v>
@@ -7808,7 +7814,7 @@
         <v>17</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>252</v>
@@ -7819,7 +7825,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>253</v>
@@ -7828,7 +7834,7 @@
         <v>17</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>254</v>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>255</v>
@@ -7848,7 +7854,7 @@
         <v>17</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>256</v>
@@ -7859,7 +7865,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>257</v>
@@ -7868,7 +7874,7 @@
         <v>17</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>258</v>
@@ -7879,7 +7885,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>259</v>
@@ -7888,7 +7894,7 @@
         <v>17</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>260</v>
@@ -7899,7 +7905,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>261</v>
@@ -7908,7 +7914,7 @@
         <v>17</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>262</v>
@@ -7919,7 +7925,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>263</v>
@@ -7928,7 +7934,7 @@
         <v>17</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>264</v>
@@ -7939,7 +7945,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>265</v>
@@ -7948,7 +7954,7 @@
         <v>17</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>266</v>
@@ -7959,7 +7965,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>267</v>
@@ -7968,7 +7974,7 @@
         <v>17</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>268</v>
@@ -7979,7 +7985,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>269</v>
@@ -7988,12 +7994,32 @@
         <v>17</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F355" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F356" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="275">
   <si>
     <t>Sezione</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.segretarioComunale</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
   </si>
   <si>
     <t>Impedimento - Sposo</t>
@@ -889,7 +895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G356"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6440,7 +6446,7 @@
         <v>98</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278">
@@ -6480,7 +6486,7 @@
         <v>102</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280">
@@ -6520,7 +6526,7 @@
         <v>106</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282">
@@ -6945,99 +6951,99 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C303" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D303" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E303" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7045,19 +7051,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7065,19 +7071,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7085,10 +7091,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -7097,27 +7103,27 @@
         <v>230</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="2" t="s">
+      <c r="E311" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>16</v>
@@ -7125,79 +7131,79 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7205,19 +7211,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7225,19 +7231,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7245,30 +7251,30 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -7277,461 +7283,461 @@
         <v>236</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F341" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>74</v>
@@ -7740,38 +7746,38 @@
         <v>243</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E343" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F343" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>74</v>
@@ -7785,16 +7791,16 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>250</v>
@@ -7805,7 +7811,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>251</v>
@@ -7814,7 +7820,7 @@
         <v>17</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>252</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>253</v>
@@ -7845,7 +7851,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>255</v>
@@ -7865,7 +7871,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>257</v>
@@ -7885,7 +7891,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>259</v>
@@ -7905,7 +7911,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>261</v>
@@ -7925,7 +7931,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>263</v>
@@ -7945,7 +7951,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>265</v>
@@ -7965,7 +7971,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>267</v>
@@ -7985,7 +7991,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>269</v>
@@ -7994,7 +8000,7 @@
         <v>17</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>270</v>
@@ -8005,7 +8011,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>271</v>
@@ -8020,6 +8026,26 @@
         <v>272</v>
       </c>
       <c r="F356" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F357" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="288">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,27 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -837,6 +858,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -895,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G357"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1051,13 +1090,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1071,13 +1110,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1091,10 +1130,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1111,10 +1150,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1131,10 +1170,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1151,10 +1190,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1171,10 +1210,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1191,13 +1230,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1211,13 +1250,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1231,7 +1270,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1251,7 +1290,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -1271,7 +1310,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1291,7 +1330,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -1311,7 +1350,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -1331,7 +1370,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -1351,7 +1390,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>32</v>
@@ -1371,7 +1410,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -1391,7 +1430,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1411,7 +1450,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -1431,7 +1470,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -1451,7 +1490,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
@@ -1471,7 +1510,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
@@ -1491,7 +1530,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>39</v>
@@ -1511,7 +1550,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -1531,7 +1570,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
@@ -1551,7 +1590,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
@@ -1570,40 +1609,40 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1611,19 +1650,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1631,19 +1670,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1651,19 +1690,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1671,19 +1710,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1691,59 +1730,59 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>9</v>
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1751,19 +1790,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1771,19 +1810,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1791,19 +1830,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1811,19 +1850,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1831,19 +1870,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1851,19 +1890,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1871,19 +1910,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1891,19 +1930,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1911,19 +1950,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1931,19 +1970,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1951,19 +1990,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1971,39 +2010,39 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -2011,19 +2050,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -2031,19 +2070,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2051,19 +2090,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2071,39 +2110,39 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2111,39 +2150,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2151,39 +2190,39 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2191,19 +2230,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2211,19 +2250,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2231,19 +2270,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2251,119 +2290,119 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2371,19 +2410,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2391,19 +2430,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2411,39 +2450,39 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2451,59 +2490,59 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2511,19 +2550,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2531,19 +2570,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2551,39 +2590,39 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2591,39 +2630,39 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2631,19 +2670,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2651,19 +2690,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2671,19 +2710,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2691,119 +2730,119 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2811,19 +2850,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2831,19 +2870,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2851,99 +2890,99 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2951,39 +2990,39 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2991,1659 +3030,1659 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4651,119 +4690,119 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E191" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4771,19 +4810,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4791,19 +4830,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4811,79 +4850,79 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4891,19 +4930,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4911,19 +4950,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4931,19 +4970,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4951,79 +4990,79 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5031,19 +5070,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5051,19 +5090,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5071,19 +5110,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5091,19 +5130,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5111,59 +5150,59 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5171,19 +5210,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5191,39 +5230,39 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F215" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5231,79 +5270,79 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5311,19 +5350,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5331,39 +5370,39 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5371,39 +5410,39 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5411,19 +5450,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5431,19 +5470,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5451,19 +5490,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5471,19 +5510,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5491,79 +5530,79 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5571,19 +5610,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5591,19 +5630,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5611,19 +5650,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5631,79 +5670,79 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5711,19 +5750,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5731,19 +5770,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5751,19 +5790,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5771,79 +5810,79 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5851,19 +5890,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5871,19 +5910,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5891,19 +5930,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5911,79 +5950,79 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5991,19 +6030,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -6011,19 +6050,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -6031,19 +6070,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -6051,79 +6090,79 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6131,19 +6170,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6151,19 +6190,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6171,19 +6210,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6191,99 +6230,99 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6291,19 +6330,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6311,19 +6350,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6331,99 +6370,99 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F273" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6431,39 +6470,39 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6471,99 +6510,99 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6571,39 +6610,39 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6611,39 +6650,39 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6651,39 +6690,39 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6691,19 +6730,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6711,19 +6750,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6731,19 +6770,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6751,19 +6790,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6771,19 +6810,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6791,39 +6830,39 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6831,19 +6870,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6851,19 +6890,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6871,19 +6910,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6891,19 +6930,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6914,19 +6953,19 @@
         <v>225</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302">
@@ -6934,19 +6973,19 @@
         <v>225</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303">
@@ -6954,16 +6993,16 @@
         <v>225</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6971,39 +7010,39 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7011,39 +7050,39 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7051,39 +7090,39 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7091,19 +7130,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7111,99 +7150,99 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7211,19 +7250,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7231,19 +7270,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7251,139 +7290,139 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7391,499 +7430,499 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>9</v>
@@ -7891,39 +7930,39 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -7931,19 +7970,19 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
@@ -7951,19 +7990,19 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -7971,19 +8010,19 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>9</v>
@@ -7991,19 +8030,19 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8011,19 +8050,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8031,21 +8070,201 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E360" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E357" s="2" t="s">
+      <c r="F360" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F357" s="2" t="s">
+      <c r="C361" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F366" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -59,7 +59,7 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -4796,7 +4796,7 @@
         <v>68</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>149</v>
@@ -4816,7 +4816,7 @@
         <v>70</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>149</v>
@@ -4836,7 +4836,7 @@
         <v>72</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>149</v>
@@ -4856,7 +4856,7 @@
         <v>74</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>149</v>
@@ -4865,7 +4865,7 @@
         <v>151</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197">
@@ -4876,7 +4876,7 @@
         <v>152</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>149</v>
@@ -4885,7 +4885,7 @@
         <v>153</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198">
@@ -4896,7 +4896,7 @@
         <v>154</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>149</v>
@@ -4905,7 +4905,7 @@
         <v>155</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="289">
   <si>
     <t>Sezione</t>
   </si>
@@ -278,6 +278,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -569,7 +572,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -1256,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2093,7 +2096,7 @@
         <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>24</v>
@@ -2102,7 +2105,7 @@
         <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2113,7 +2116,7 @@
         <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -2122,7 +2125,7 @@
         <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>23</v>
@@ -2133,7 +2136,7 @@
         <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
@@ -2142,7 +2145,7 @@
         <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2150,39 +2153,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2190,19 +2193,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2210,19 +2213,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2230,19 +2233,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2250,19 +2253,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2270,19 +2273,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2290,19 +2293,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>23</v>
@@ -2310,19 +2313,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2330,19 +2333,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>23</v>
@@ -2350,19 +2353,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2370,19 +2373,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2390,19 +2393,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2410,19 +2413,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2430,19 +2433,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2450,19 +2453,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
@@ -2470,19 +2473,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2490,19 +2493,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>23</v>
@@ -2510,19 +2513,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>23</v>
@@ -2530,19 +2533,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2550,19 +2553,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2570,19 +2573,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2590,39 +2593,39 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2630,19 +2633,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2650,19 +2653,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2670,19 +2673,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2690,19 +2693,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2710,19 +2713,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2730,19 +2733,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>23</v>
@@ -2750,19 +2753,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2770,19 +2773,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>23</v>
@@ -2790,19 +2793,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2810,19 +2813,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2830,19 +2833,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2850,19 +2853,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2870,19 +2873,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2890,19 +2893,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>23</v>
@@ -2910,19 +2913,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2930,19 +2933,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>23</v>
@@ -2950,19 +2953,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>23</v>
@@ -2970,19 +2973,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2990,19 +2993,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -3010,19 +3013,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -3030,19 +3033,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>23</v>
@@ -3050,19 +3053,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>23</v>
@@ -3070,19 +3073,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>23</v>
@@ -3090,19 +3093,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>23</v>
@@ -3110,19 +3113,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -3130,19 +3133,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>23</v>
@@ -3150,19 +3153,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3170,19 +3173,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>23</v>
@@ -3190,19 +3193,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3210,19 +3213,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>23</v>
@@ -3230,19 +3233,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3250,19 +3253,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>23</v>
@@ -3270,19 +3273,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3290,19 +3293,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3310,19 +3313,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3330,19 +3333,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>23</v>
@@ -3350,19 +3353,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3370,19 +3373,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>23</v>
@@ -3390,19 +3393,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>23</v>
@@ -3410,19 +3413,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>23</v>
@@ -3430,19 +3433,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>23</v>
@@ -3450,19 +3453,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>23</v>
@@ -3470,19 +3473,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>23</v>
@@ -3490,19 +3493,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>23</v>
@@ -3510,19 +3513,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>23</v>
@@ -3530,19 +3533,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>23</v>
@@ -3550,19 +3553,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3570,19 +3573,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>23</v>
@@ -3590,19 +3593,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3610,19 +3613,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3630,19 +3633,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3650,19 +3653,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>23</v>
@@ -3670,19 +3673,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3690,19 +3693,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3710,19 +3713,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3730,19 +3733,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3750,19 +3753,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3770,19 +3773,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>23</v>
@@ -3790,19 +3793,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3810,19 +3813,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>23</v>
@@ -3830,19 +3833,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>23</v>
@@ -3850,19 +3853,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>23</v>
@@ -3870,19 +3873,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>23</v>
@@ -3890,19 +3893,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>23</v>
@@ -3910,19 +3913,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>23</v>
@@ -3930,19 +3933,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>23</v>
@@ -3950,19 +3953,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>23</v>
@@ -3970,19 +3973,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>23</v>
@@ -3990,19 +3993,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -4010,19 +4013,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>23</v>
@@ -4030,19 +4033,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -4050,19 +4053,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>23</v>
@@ -4070,19 +4073,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4090,19 +4093,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>23</v>
@@ -4110,19 +4113,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4130,19 +4133,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>23</v>
@@ -4150,19 +4153,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4170,19 +4173,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>23</v>
@@ -4190,19 +4193,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4210,19 +4213,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>23</v>
@@ -4230,19 +4233,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4250,19 +4253,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>23</v>
@@ -4270,19 +4273,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>23</v>
@@ -4290,19 +4293,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>23</v>
@@ -4310,19 +4313,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>23</v>
@@ -4330,19 +4333,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>23</v>
@@ -4350,19 +4353,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>23</v>
@@ -4370,19 +4373,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>23</v>
@@ -4390,19 +4393,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>23</v>
@@ -4410,19 +4413,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>23</v>
@@ -4430,19 +4433,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4450,19 +4453,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>23</v>
@@ -4470,19 +4473,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4490,19 +4493,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>23</v>
@@ -4510,19 +4513,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4530,19 +4533,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>23</v>
@@ -4550,19 +4553,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4570,19 +4573,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>23</v>
@@ -4590,19 +4593,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4610,19 +4613,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>23</v>
@@ -4630,19 +4633,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4650,19 +4653,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>23</v>
@@ -4670,19 +4673,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4690,19 +4693,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>23</v>
@@ -4710,19 +4713,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>23</v>
@@ -4730,19 +4733,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>23</v>
@@ -4750,19 +4753,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>23</v>
@@ -4770,19 +4773,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>23</v>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>68</v>
@@ -4799,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>69</v>
@@ -4810,7 +4813,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>70</v>
@@ -4819,10 +4822,10 @@
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4830,7 +4833,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>72</v>
@@ -4839,7 +4842,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>73</v>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>74</v>
@@ -4859,10 +4862,10 @@
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>25</v>
@@ -4870,19 +4873,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>25</v>
@@ -4890,19 +4893,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>25</v>
@@ -4910,10 +4913,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -4922,7 +4925,7 @@
         <v>81</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4930,16 +4933,16 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>69</v>
@@ -4950,7 +4953,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>70</v>
@@ -4959,10 +4962,10 @@
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4970,7 +4973,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>72</v>
@@ -4979,7 +4982,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>73</v>
@@ -4990,7 +4993,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>74</v>
@@ -4999,10 +5002,10 @@
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>25</v>
@@ -5010,19 +5013,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -5030,19 +5033,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>25</v>
@@ -5050,19 +5053,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5070,19 +5073,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5090,19 +5093,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5110,19 +5113,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5130,19 +5133,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5150,19 +5153,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5170,16 +5173,16 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>53</v>
@@ -5190,19 +5193,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5210,16 +5213,16 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>55</v>
@@ -5230,19 +5233,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5250,19 +5253,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5270,19 +5273,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5290,19 +5293,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>26</v>
@@ -5310,19 +5313,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>26</v>
@@ -5330,19 +5333,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5350,19 +5353,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5370,19 +5373,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>26</v>
@@ -5390,19 +5393,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5410,19 +5413,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>26</v>
@@ -5430,19 +5433,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5450,19 +5453,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5470,19 +5473,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5490,19 +5493,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5510,19 +5513,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5530,19 +5533,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5550,16 +5553,16 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>53</v>
@@ -5570,19 +5573,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5590,16 +5593,16 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>55</v>
@@ -5610,19 +5613,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5630,19 +5633,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5650,19 +5653,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5670,19 +5673,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>27</v>
@@ -5690,19 +5693,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>27</v>
@@ -5710,19 +5713,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>27</v>
@@ -5730,19 +5733,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5750,19 +5753,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5770,19 +5773,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5790,19 +5793,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5810,19 +5813,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E244" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>27</v>
@@ -5830,19 +5833,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E245" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>27</v>
@@ -5850,19 +5853,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E246" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>27</v>
@@ -5870,19 +5873,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5890,19 +5893,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E248" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5910,19 +5913,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E249" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5930,19 +5933,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5950,19 +5953,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>28</v>
@@ -5970,19 +5973,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>28</v>
@@ -5990,19 +5993,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>28</v>
@@ -6010,19 +6013,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -6030,19 +6033,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -6050,19 +6053,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -6070,19 +6073,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -6090,19 +6093,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>29</v>
@@ -6110,19 +6113,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>29</v>
@@ -6130,19 +6133,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>29</v>
@@ -6150,19 +6153,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6170,19 +6173,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6190,19 +6193,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6210,19 +6213,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6230,19 +6233,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>30</v>
@@ -6250,19 +6253,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>30</v>
@@ -6270,19 +6273,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>30</v>
@@ -6290,19 +6293,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6310,19 +6313,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6330,19 +6333,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6350,19 +6353,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6370,39 +6373,39 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>33</v>
@@ -6410,19 +6413,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>33</v>
@@ -6430,19 +6433,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>33</v>
@@ -6450,19 +6453,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6470,19 +6473,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6490,19 +6493,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6510,19 +6513,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>31</v>
@@ -6530,19 +6533,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>31</v>
@@ -6550,19 +6553,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6570,19 +6573,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>31</v>
@@ -6590,19 +6593,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6610,19 +6613,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>31</v>
@@ -6630,19 +6633,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6650,19 +6653,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>31</v>
@@ -6670,19 +6673,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6690,19 +6693,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>31</v>
@@ -6710,19 +6713,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6730,19 +6733,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6750,19 +6753,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6770,19 +6773,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6790,19 +6793,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6810,19 +6813,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6830,19 +6833,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6850,19 +6853,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6870,19 +6873,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6890,19 +6893,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6910,19 +6913,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6930,19 +6933,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6950,19 +6953,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6970,19 +6973,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>31</v>
@@ -6990,19 +6993,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -7010,19 +7013,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7030,19 +7033,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7050,19 +7053,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -7070,19 +7073,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7090,19 +7093,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>23</v>
@@ -7110,19 +7113,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7130,10 +7133,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>24</v>
@@ -7142,7 +7145,7 @@
         <v>81</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7150,19 +7153,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>23</v>
@@ -7170,19 +7173,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7190,19 +7193,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>23</v>
@@ -7210,19 +7213,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7230,19 +7233,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7250,19 +7253,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7270,19 +7273,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7290,19 +7293,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>23</v>
@@ -7310,19 +7313,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>23</v>
@@ -7330,19 +7333,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7350,19 +7353,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>23</v>
@@ -7370,19 +7373,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -7390,19 +7393,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>9</v>
@@ -7410,19 +7413,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7430,19 +7433,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7450,19 +7453,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E326" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>23</v>
@@ -7470,99 +7473,99 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -7570,39 +7573,39 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>9</v>
@@ -7610,39 +7613,39 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -7650,39 +7653,39 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -7690,39 +7693,39 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -7730,39 +7733,39 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -7770,39 +7773,39 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
@@ -7810,110 +7813,110 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>24</v>
@@ -7922,7 +7925,7 @@
         <v>81</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>9</v>
@@ -7930,10 +7933,10 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
@@ -7942,18 +7945,18 @@
         <v>81</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>24</v>
@@ -7962,7 +7965,7 @@
         <v>81</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -7970,10 +7973,10 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
@@ -7982,7 +7985,7 @@
         <v>81</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
@@ -7990,10 +7993,10 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>24</v>
@@ -8002,7 +8005,7 @@
         <v>52</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -8010,10 +8013,10 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>24</v>
@@ -8022,7 +8025,7 @@
         <v>81</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>9</v>
@@ -8030,10 +8033,10 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>24</v>
@@ -8042,7 +8045,7 @@
         <v>81</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8050,10 +8053,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>24</v>
@@ -8062,7 +8065,7 @@
         <v>81</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8070,10 +8073,10 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>24</v>
@@ -8082,7 +8085,7 @@
         <v>81</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8090,10 +8093,10 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>24</v>
@@ -8102,7 +8105,7 @@
         <v>81</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8110,10 +8113,10 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>24</v>
@@ -8122,7 +8125,7 @@
         <v>81</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -8130,10 +8133,10 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>24</v>
@@ -8142,7 +8145,7 @@
         <v>81</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>9</v>
@@ -8150,10 +8153,10 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>24</v>
@@ -8162,7 +8165,7 @@
         <v>81</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>9</v>
@@ -8170,19 +8173,19 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -8190,19 +8193,19 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>9</v>
@@ -8210,19 +8213,19 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>9</v>
@@ -8230,19 +8233,19 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -8250,19 +8253,19 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="303">
   <si>
     <t>Sezione</t>
   </si>
@@ -692,27 +692,6 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.nominaAssistenteLegale</t>
-  </si>
-  <si>
     <t>Segretario comunale</t>
   </si>
   <si>
@@ -725,6 +704,24 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
+    <t>Padre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
+  </si>
+  <si>
+    <t>Padre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
+  </si>
+  <si>
+    <t>Madre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
+  </si>
+  <si>
     <t>Impedimento - Sposo</t>
   </si>
   <si>
@@ -740,6 +737,12 @@
     <t>motivazione</t>
   </si>
   <si>
+    <t>Madre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[1]</t>
+  </si>
+  <si>
     <t>Impedimento - Sposa</t>
   </si>
   <si>
@@ -749,6 +752,30 @@
     <t>evento.datiEventoMatrimonio.impedimentoSposa</t>
   </si>
   <si>
+    <t>Tutore Sposo</t>
+  </si>
+  <si>
+    <t>Curatore Sposo</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].nominaAssistenteLegale</t>
+  </si>
+  <si>
+    <t>Tutore Sposa</t>
+  </si>
+  <si>
+    <t>Curatore Sposa</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].nominaAssistenteLegale</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -861,6 +888,21 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0]</t>
+  </si>
+  <si>
+    <t>tipoAssistente</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1]</t>
   </si>
   <si>
     <t>Annotazione Contestuale</t>
@@ -937,16 +979,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G527"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -6476,19 +6518,19 @@
         <v>226</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E277" s="2" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278">
@@ -6496,16 +6538,16 @@
         <v>226</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6516,27 +6558,27 @@
         <v>226</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -6545,18 +6587,18 @@
         <v>231</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -6565,7 +6607,7 @@
         <v>231</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6573,10 +6615,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -6585,18 +6627,18 @@
         <v>231</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -6605,7 +6647,7 @@
         <v>231</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6613,10 +6655,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -6625,18 +6667,18 @@
         <v>231</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -6645,7 +6687,7 @@
         <v>231</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6653,10 +6695,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -6665,18 +6707,18 @@
         <v>231</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -6685,7 +6727,7 @@
         <v>231</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6693,10 +6735,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -6705,18 +6747,18 @@
         <v>231</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -6725,7 +6767,7 @@
         <v>231</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6733,10 +6775,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -6745,7 +6787,7 @@
         <v>231</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6753,10 +6795,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -6765,7 +6807,7 @@
         <v>231</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6773,10 +6815,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -6785,7 +6827,7 @@
         <v>231</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6793,10 +6835,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
@@ -6805,7 +6847,7 @@
         <v>231</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6813,10 +6855,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -6825,7 +6867,7 @@
         <v>231</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6833,10 +6875,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -6845,7 +6887,7 @@
         <v>231</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6853,10 +6895,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -6865,7 +6907,7 @@
         <v>231</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6873,10 +6915,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -6885,7 +6927,7 @@
         <v>231</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6893,10 +6935,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -6905,7 +6947,7 @@
         <v>231</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6913,10 +6955,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -6925,7 +6967,7 @@
         <v>231</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6933,10 +6975,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -6945,7 +6987,7 @@
         <v>231</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6953,19 +6995,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6973,39 +7015,39 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -7013,19 +7055,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7033,19 +7075,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7053,19 +7095,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -7073,19 +7115,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7093,39 +7135,39 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E308" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E309" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7133,19 +7175,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E310" s="2" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7153,39 +7195,39 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7193,39 +7235,39 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7233,19 +7275,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7253,19 +7295,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7273,19 +7315,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7293,59 +7335,59 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7353,39 +7395,39 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -7393,19 +7435,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>9</v>
@@ -7413,19 +7455,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7433,19 +7475,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7453,119 +7495,119 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -7573,39 +7615,39 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>9</v>
@@ -7613,39 +7655,39 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -7653,39 +7695,39 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -7693,39 +7735,39 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -7733,39 +7775,39 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -7773,39 +7815,39 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
@@ -7813,119 +7855,119 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>9</v>
@@ -7933,39 +7975,39 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -7973,19 +8015,19 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
@@ -7993,39 +8035,39 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>9</v>
@@ -8033,19 +8075,19 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8053,19 +8095,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8073,19 +8115,19 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8093,19 +8135,19 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8113,19 +8155,19 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -8133,19 +8175,19 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>9</v>
@@ -8153,19 +8195,19 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>9</v>
@@ -8173,19 +8215,19 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -8193,19 +8235,19 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>9</v>
@@ -8213,19 +8255,19 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>9</v>
@@ -8233,19 +8275,19 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>284</v>
+        <v>117</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -8253,21 +8295,3241 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E519" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="F519" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E521" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E366" s="2" t="s">
+      <c r="F521" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B522" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F366" s="2" t="s">
+      <c r="C522" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F527" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="331">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -767,31 +767,25 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Impedimento - Sposo</t>
@@ -7521,7 +7515,7 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281">
@@ -7544,7 +7538,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282">
@@ -7567,7 +7561,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="283">
@@ -7590,7 +7584,7 @@
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284">
@@ -7613,7 +7607,7 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
@@ -7636,7 +7630,7 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="286">
@@ -7659,7 +7653,7 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="287">
@@ -7682,7 +7676,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="288">
@@ -7705,7 +7699,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289">
@@ -7728,7 +7722,7 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="290">
@@ -7751,7 +7745,7 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="291">
@@ -7774,7 +7768,7 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="292">
@@ -7797,7 +7791,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293">
@@ -7820,7 +7814,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294">
@@ -7843,7 +7837,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="295">
@@ -7866,7 +7860,7 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296">
@@ -7889,7 +7883,7 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="297">
@@ -7912,7 +7906,7 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="298">
@@ -7935,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="299">
@@ -7958,7 +7952,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300">
@@ -7981,7 +7975,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301">
@@ -8004,12 +7998,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>98</v>
@@ -8018,7 +8012,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>104</v>
@@ -8027,12 +8021,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>100</v>
@@ -8041,7 +8035,7 @@
         <v>31</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>106</v>
@@ -8050,12 +8044,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>107</v>
@@ -8064,7 +8058,7 @@
         <v>31</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>108</v>
@@ -8073,12 +8067,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>109</v>
@@ -8087,7 +8081,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>110</v>
@@ -8096,12 +8090,12 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>111</v>
@@ -8110,7 +8104,7 @@
         <v>31</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>112</v>
@@ -8119,12 +8113,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>113</v>
@@ -8133,7 +8127,7 @@
         <v>31</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>114</v>
@@ -8142,12 +8136,12 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>115</v>
@@ -8156,7 +8150,7 @@
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>116</v>
@@ -8165,12 +8159,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>117</v>
@@ -8179,7 +8173,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>118</v>
@@ -8188,12 +8182,12 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>119</v>
@@ -8202,7 +8196,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>120</v>
@@ -8211,12 +8205,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>121</v>
@@ -8225,7 +8219,7 @@
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>122</v>
@@ -8234,12 +8228,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>123</v>
@@ -8248,7 +8242,7 @@
         <v>31</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>124</v>
@@ -8257,12 +8251,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>125</v>
@@ -8271,7 +8265,7 @@
         <v>31</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>126</v>
@@ -8280,12 +8274,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>127</v>
@@ -8294,7 +8288,7 @@
         <v>31</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>128</v>
@@ -8303,12 +8297,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>129</v>
@@ -8317,7 +8311,7 @@
         <v>31</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>130</v>
@@ -8326,12 +8320,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>131</v>
@@ -8340,7 +8334,7 @@
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>132</v>
@@ -8349,12 +8343,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>133</v>
@@ -8363,7 +8357,7 @@
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>134</v>
@@ -8372,12 +8366,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>135</v>
@@ -8386,7 +8380,7 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>136</v>
@@ -8395,12 +8389,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>137</v>
@@ -8409,7 +8403,7 @@
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>138</v>
@@ -8418,12 +8412,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>139</v>
@@ -8432,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>140</v>
@@ -8441,12 +8435,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>141</v>
@@ -8455,7 +8449,7 @@
         <v>31</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>142</v>
@@ -8464,12 +8458,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>143</v>
@@ -8478,7 +8472,7 @@
         <v>31</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>144</v>
@@ -8487,12 +8481,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>145</v>
@@ -8501,7 +8495,7 @@
         <v>31</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>146</v>
@@ -8510,12 +8504,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>98</v>
@@ -8524,7 +8518,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>104</v>
@@ -8533,12 +8527,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>100</v>
@@ -8547,7 +8541,7 @@
         <v>31</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>106</v>
@@ -8556,12 +8550,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>107</v>
@@ -8570,7 +8564,7 @@
         <v>31</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>108</v>
@@ -8579,12 +8573,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>109</v>
@@ -8593,7 +8587,7 @@
         <v>31</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>110</v>
@@ -8602,12 +8596,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>111</v>
@@ -8616,7 +8610,7 @@
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>112</v>
@@ -8625,12 +8619,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>113</v>
@@ -8639,7 +8633,7 @@
         <v>31</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>114</v>
@@ -8648,12 +8642,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>115</v>
@@ -8662,7 +8656,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>116</v>
@@ -8671,12 +8665,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>117</v>
@@ -8685,7 +8679,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>118</v>
@@ -8694,12 +8688,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>119</v>
@@ -8708,7 +8702,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>120</v>
@@ -8717,12 +8711,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>121</v>
@@ -8731,7 +8725,7 @@
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>122</v>
@@ -8740,12 +8734,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>123</v>
@@ -8754,7 +8748,7 @@
         <v>31</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>124</v>
@@ -8763,12 +8757,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>125</v>
@@ -8777,7 +8771,7 @@
         <v>31</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>126</v>
@@ -8786,12 +8780,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>127</v>
@@ -8800,7 +8794,7 @@
         <v>31</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>128</v>
@@ -8809,12 +8803,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>129</v>
@@ -8823,7 +8817,7 @@
         <v>31</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>130</v>
@@ -8832,12 +8826,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>131</v>
@@ -8846,7 +8840,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>132</v>
@@ -8855,12 +8849,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>133</v>
@@ -8869,7 +8863,7 @@
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>134</v>
@@ -8878,12 +8872,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>135</v>
@@ -8892,7 +8886,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>136</v>
@@ -8901,12 +8895,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>137</v>
@@ -8915,7 +8909,7 @@
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>138</v>
@@ -8924,12 +8918,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>139</v>
@@ -8938,7 +8932,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>140</v>
@@ -8947,12 +8941,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>141</v>
@@ -8961,7 +8955,7 @@
         <v>31</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>142</v>
@@ -8970,12 +8964,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>143</v>
@@ -8984,7 +8978,7 @@
         <v>31</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>144</v>
@@ -8993,12 +8987,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>145</v>
@@ -9007,7 +9001,7 @@
         <v>31</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>146</v>
@@ -9016,12 +9010,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>200</v>
@@ -9030,7 +9024,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>202</v>
@@ -9039,12 +9033,12 @@
         <v>30</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>204</v>
@@ -9053,7 +9047,7 @@
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>205</v>
@@ -9062,12 +9056,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>206</v>
@@ -9076,7 +9070,7 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>207</v>
@@ -9085,12 +9079,12 @@
         <v>30</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>208</v>
@@ -9099,7 +9093,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>209</v>
@@ -9108,12 +9102,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>210</v>
@@ -9122,7 +9116,7 @@
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>211</v>
@@ -9131,12 +9125,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>212</v>
@@ -9145,7 +9139,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>213</v>
@@ -9154,12 +9148,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>214</v>
@@ -9168,7 +9162,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>215</v>
@@ -9177,35 +9171,35 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>98</v>
@@ -9214,7 +9208,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>104</v>
@@ -9223,12 +9217,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>100</v>
@@ -9237,7 +9231,7 @@
         <v>31</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>106</v>
@@ -9246,12 +9240,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>107</v>
@@ -9260,7 +9254,7 @@
         <v>31</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>108</v>
@@ -9269,12 +9263,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>109</v>
@@ -9283,7 +9277,7 @@
         <v>31</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>110</v>
@@ -9292,12 +9286,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>111</v>
@@ -9306,7 +9300,7 @@
         <v>31</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>112</v>
@@ -9315,12 +9309,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>113</v>
@@ -9329,7 +9323,7 @@
         <v>31</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>114</v>
@@ -9338,12 +9332,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>115</v>
@@ -9352,7 +9346,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>116</v>
@@ -9361,12 +9355,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>117</v>
@@ -9375,7 +9369,7 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>118</v>
@@ -9384,12 +9378,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>119</v>
@@ -9398,7 +9392,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>120</v>
@@ -9407,12 +9401,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>121</v>
@@ -9421,7 +9415,7 @@
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>122</v>
@@ -9430,12 +9424,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>123</v>
@@ -9444,7 +9438,7 @@
         <v>31</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>124</v>
@@ -9453,12 +9447,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>125</v>
@@ -9467,7 +9461,7 @@
         <v>31</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>126</v>
@@ -9476,12 +9470,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>127</v>
@@ -9490,7 +9484,7 @@
         <v>31</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>128</v>
@@ -9499,12 +9493,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>129</v>
@@ -9513,7 +9507,7 @@
         <v>31</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>130</v>
@@ -9522,12 +9516,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>131</v>
@@ -9536,7 +9530,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>132</v>
@@ -9545,12 +9539,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>133</v>
@@ -9559,7 +9553,7 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>134</v>
@@ -9568,12 +9562,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>135</v>
@@ -9582,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>136</v>
@@ -9591,12 +9585,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>137</v>
@@ -9605,7 +9599,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>138</v>
@@ -9614,12 +9608,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>139</v>
@@ -9628,7 +9622,7 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>140</v>
@@ -9637,12 +9631,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>141</v>
@@ -9651,7 +9645,7 @@
         <v>31</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>142</v>
@@ -9660,12 +9654,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>143</v>
@@ -9674,7 +9668,7 @@
         <v>31</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>144</v>
@@ -9683,12 +9677,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>145</v>
@@ -9697,7 +9691,7 @@
         <v>31</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>146</v>
@@ -9706,12 +9700,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>200</v>
@@ -9720,7 +9714,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>202</v>
@@ -9729,12 +9723,12 @@
         <v>30</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>204</v>
@@ -9743,7 +9737,7 @@
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>205</v>
@@ -9752,12 +9746,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>206</v>
@@ -9766,7 +9760,7 @@
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>207</v>
@@ -9775,12 +9769,12 @@
         <v>30</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>208</v>
@@ -9789,7 +9783,7 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>209</v>
@@ -9798,12 +9792,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>210</v>
@@ -9812,7 +9806,7 @@
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>211</v>
@@ -9821,12 +9815,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>212</v>
@@ -9835,7 +9829,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>213</v>
@@ -9844,12 +9838,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>214</v>
@@ -9858,7 +9852,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>215</v>
@@ -9867,35 +9861,35 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E383" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E383" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>98</v>
@@ -9913,12 +9907,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>100</v>
@@ -9936,12 +9930,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>107</v>
@@ -9959,12 +9953,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>109</v>
@@ -9982,12 +9976,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>111</v>
@@ -10005,12 +9999,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>113</v>
@@ -10028,12 +10022,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>115</v>
@@ -10051,12 +10045,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>117</v>
@@ -10074,12 +10068,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>119</v>
@@ -10097,12 +10091,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>121</v>
@@ -10120,12 +10114,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>123</v>
@@ -10143,12 +10137,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>125</v>
@@ -10166,12 +10160,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>127</v>
@@ -10189,12 +10183,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>129</v>
@@ -10212,12 +10206,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>131</v>
@@ -10235,12 +10229,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>133</v>
@@ -10258,12 +10252,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>135</v>
@@ -10281,12 +10275,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>137</v>
@@ -10304,12 +10298,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>139</v>
@@ -10327,12 +10321,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>141</v>
@@ -10350,12 +10344,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>143</v>
@@ -10373,12 +10367,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>145</v>
@@ -10396,12 +10390,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>98</v>
@@ -10419,12 +10413,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>100</v>
@@ -10442,12 +10436,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>107</v>
@@ -10465,12 +10459,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>109</v>
@@ -10488,12 +10482,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>111</v>
@@ -10511,12 +10505,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>113</v>
@@ -10534,12 +10528,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>115</v>
@@ -10557,12 +10551,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>117</v>
@@ -10580,12 +10574,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>119</v>
@@ -10603,12 +10597,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>121</v>
@@ -10626,12 +10620,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>123</v>
@@ -10649,12 +10643,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>125</v>
@@ -10672,12 +10666,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>127</v>
@@ -10695,12 +10689,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>129</v>
@@ -10718,12 +10712,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>131</v>
@@ -10741,12 +10735,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>133</v>
@@ -10764,12 +10758,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>135</v>
@@ -10787,12 +10781,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>137</v>
@@ -10810,12 +10804,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>139</v>
@@ -10833,12 +10827,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>141</v>
@@ -10856,12 +10850,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>143</v>
@@ -10879,12 +10873,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>145</v>
@@ -10902,12 +10896,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>200</v>
@@ -10916,7 +10910,7 @@
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>202</v>
@@ -10925,12 +10919,12 @@
         <v>38</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>204</v>
@@ -10939,7 +10933,7 @@
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>205</v>
@@ -10948,12 +10942,12 @@
         <v>38</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>206</v>
@@ -10962,7 +10956,7 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>207</v>
@@ -10971,12 +10965,12 @@
         <v>38</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>208</v>
@@ -10985,7 +10979,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>209</v>
@@ -10994,12 +10988,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>210</v>
@@ -11008,7 +11002,7 @@
         <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>211</v>
@@ -11017,12 +11011,12 @@
         <v>38</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>212</v>
@@ -11031,7 +11025,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>213</v>
@@ -11040,12 +11034,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>214</v>
@@ -11054,7 +11048,7 @@
         <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>215</v>
@@ -11063,12 +11057,12 @@
         <v>38</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>98</v>
@@ -11077,7 +11071,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>104</v>
@@ -11086,12 +11080,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>100</v>
@@ -11100,7 +11094,7 @@
         <v>31</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>106</v>
@@ -11109,12 +11103,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>107</v>
@@ -11123,7 +11117,7 @@
         <v>31</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>108</v>
@@ -11132,12 +11126,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>109</v>
@@ -11146,7 +11140,7 @@
         <v>31</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>110</v>
@@ -11155,12 +11149,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>111</v>
@@ -11169,7 +11163,7 @@
         <v>31</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>112</v>
@@ -11178,12 +11172,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>113</v>
@@ -11192,7 +11186,7 @@
         <v>31</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>114</v>
@@ -11201,12 +11195,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>115</v>
@@ -11215,7 +11209,7 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>116</v>
@@ -11224,12 +11218,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>117</v>
@@ -11238,7 +11232,7 @@
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>118</v>
@@ -11247,12 +11241,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>119</v>
@@ -11261,7 +11255,7 @@
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>120</v>
@@ -11270,12 +11264,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>121</v>
@@ -11284,7 +11278,7 @@
         <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>122</v>
@@ -11293,12 +11287,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>123</v>
@@ -11307,7 +11301,7 @@
         <v>31</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>124</v>
@@ -11316,12 +11310,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>125</v>
@@ -11330,7 +11324,7 @@
         <v>31</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>126</v>
@@ -11339,12 +11333,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>127</v>
@@ -11353,7 +11347,7 @@
         <v>31</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>128</v>
@@ -11362,12 +11356,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>129</v>
@@ -11376,7 +11370,7 @@
         <v>31</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>130</v>
@@ -11385,12 +11379,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>131</v>
@@ -11399,7 +11393,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>132</v>
@@ -11408,12 +11402,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>133</v>
@@ -11422,7 +11416,7 @@
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>134</v>
@@ -11431,12 +11425,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>135</v>
@@ -11445,7 +11439,7 @@
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>136</v>
@@ -11454,12 +11448,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>137</v>
@@ -11468,7 +11462,7 @@
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>138</v>
@@ -11477,12 +11471,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>139</v>
@@ -11491,7 +11485,7 @@
         <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>140</v>
@@ -11500,12 +11494,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>141</v>
@@ -11514,7 +11508,7 @@
         <v>31</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>142</v>
@@ -11523,12 +11517,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>143</v>
@@ -11537,7 +11531,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>144</v>
@@ -11546,12 +11540,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>145</v>
@@ -11560,7 +11554,7 @@
         <v>31</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>146</v>
@@ -11569,12 +11563,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>98</v>
@@ -11583,7 +11577,7 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>104</v>
@@ -11592,12 +11586,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>100</v>
@@ -11606,7 +11600,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>106</v>
@@ -11615,12 +11609,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>107</v>
@@ -11629,7 +11623,7 @@
         <v>31</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>108</v>
@@ -11638,12 +11632,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>109</v>
@@ -11652,7 +11646,7 @@
         <v>31</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>110</v>
@@ -11661,12 +11655,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>111</v>
@@ -11675,7 +11669,7 @@
         <v>31</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>112</v>
@@ -11684,12 +11678,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>113</v>
@@ -11698,7 +11692,7 @@
         <v>31</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>114</v>
@@ -11707,12 +11701,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>115</v>
@@ -11721,7 +11715,7 @@
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>116</v>
@@ -11730,12 +11724,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>117</v>
@@ -11744,7 +11738,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>118</v>
@@ -11753,12 +11747,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>119</v>
@@ -11767,7 +11761,7 @@
         <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>120</v>
@@ -11776,12 +11770,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>121</v>
@@ -11790,7 +11784,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>122</v>
@@ -11799,12 +11793,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>123</v>
@@ -11813,7 +11807,7 @@
         <v>31</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>124</v>
@@ -11822,12 +11816,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>125</v>
@@ -11836,7 +11830,7 @@
         <v>31</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>126</v>
@@ -11845,12 +11839,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>127</v>
@@ -11859,7 +11853,7 @@
         <v>31</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>128</v>
@@ -11868,12 +11862,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>129</v>
@@ -11882,7 +11876,7 @@
         <v>31</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>130</v>
@@ -11891,12 +11885,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>131</v>
@@ -11905,7 +11899,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>132</v>
@@ -11914,12 +11908,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>133</v>
@@ -11928,7 +11922,7 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>134</v>
@@ -11937,12 +11931,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>135</v>
@@ -11951,7 +11945,7 @@
         <v>9</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>136</v>
@@ -11960,12 +11954,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>137</v>
@@ -11974,7 +11968,7 @@
         <v>9</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>138</v>
@@ -11983,12 +11977,12 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>139</v>
@@ -11997,7 +11991,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>140</v>
@@ -12006,12 +12000,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>141</v>
@@ -12020,7 +12014,7 @@
         <v>31</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>142</v>
@@ -12029,12 +12023,12 @@
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>143</v>
@@ -12043,7 +12037,7 @@
         <v>31</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>144</v>
@@ -12052,12 +12046,12 @@
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>145</v>
@@ -12066,7 +12060,7 @@
         <v>31</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>146</v>
@@ -12075,12 +12069,12 @@
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>200</v>
@@ -12089,7 +12083,7 @@
         <v>9</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>202</v>
@@ -12098,12 +12092,12 @@
         <v>38</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>204</v>
@@ -12112,7 +12106,7 @@
         <v>9</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>205</v>
@@ -12121,12 +12115,12 @@
         <v>38</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>206</v>
@@ -12135,7 +12129,7 @@
         <v>9</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>207</v>
@@ -12144,12 +12138,12 @@
         <v>38</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>208</v>
@@ -12158,7 +12152,7 @@
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>209</v>
@@ -12167,12 +12161,12 @@
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>210</v>
@@ -12181,7 +12175,7 @@
         <v>9</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>211</v>
@@ -12190,12 +12184,12 @@
         <v>38</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>212</v>
@@ -12204,7 +12198,7 @@
         <v>9</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>213</v>
@@ -12213,12 +12207,12 @@
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>214</v>
@@ -12227,7 +12221,7 @@
         <v>9</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>215</v>
@@ -12236,12 +12230,12 @@
         <v>38</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>98</v>
@@ -12250,21 +12244,21 @@
         <v>9</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>100</v>
@@ -12273,7 +12267,7 @@
         <v>31</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>106</v>
@@ -12282,12 +12276,12 @@
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>107</v>
@@ -12296,7 +12290,7 @@
         <v>31</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>108</v>
@@ -12305,12 +12299,12 @@
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>109</v>
@@ -12319,7 +12313,7 @@
         <v>31</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>110</v>
@@ -12328,12 +12322,12 @@
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>111</v>
@@ -12342,7 +12336,7 @@
         <v>31</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>112</v>
@@ -12351,12 +12345,12 @@
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>113</v>
@@ -12365,7 +12359,7 @@
         <v>31</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>114</v>
@@ -12374,12 +12368,12 @@
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>115</v>
@@ -12388,7 +12382,7 @@
         <v>9</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>116</v>
@@ -12397,12 +12391,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>117</v>
@@ -12411,21 +12405,21 @@
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>119</v>
@@ -12434,7 +12428,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>120</v>
@@ -12443,12 +12437,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>121</v>
@@ -12457,21 +12451,21 @@
         <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>123</v>
@@ -12480,7 +12474,7 @@
         <v>31</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>124</v>
@@ -12489,12 +12483,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>125</v>
@@ -12503,7 +12497,7 @@
         <v>31</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>126</v>
@@ -12512,12 +12506,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>127</v>
@@ -12526,7 +12520,7 @@
         <v>31</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>128</v>
@@ -12535,12 +12529,12 @@
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>129</v>
@@ -12549,7 +12543,7 @@
         <v>31</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>130</v>
@@ -12558,12 +12552,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>131</v>
@@ -12572,7 +12566,7 @@
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>132</v>
@@ -12581,12 +12575,12 @@
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>133</v>
@@ -12595,21 +12589,21 @@
         <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>135</v>
@@ -12618,7 +12612,7 @@
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>136</v>
@@ -12627,12 +12621,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>137</v>
@@ -12641,21 +12635,21 @@
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>139</v>
@@ -12664,21 +12658,21 @@
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>141</v>
@@ -12687,7 +12681,7 @@
         <v>31</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>142</v>
@@ -12696,12 +12690,12 @@
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>143</v>
@@ -12710,7 +12704,7 @@
         <v>31</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>144</v>
@@ -12719,12 +12713,12 @@
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>145</v>
@@ -12733,7 +12727,7 @@
         <v>31</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>146</v>
@@ -12742,15 +12736,15 @@
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>31</v>
@@ -12759,7 +12753,7 @@
         <v>89</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
@@ -12770,10 +12764,10 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
@@ -12782,10 +12776,10 @@
         <v>89</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G509" s="2" t="s">
         <v>61</v>
@@ -12793,10 +12787,10 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>31</v>
@@ -12805,7 +12799,7 @@
         <v>89</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
@@ -12816,10 +12810,10 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>9</v>
@@ -12828,7 +12822,7 @@
         <v>89</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
@@ -12839,10 +12833,10 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>31</v>
@@ -12851,7 +12845,7 @@
         <v>59</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
@@ -12862,10 +12856,10 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>31</v>
@@ -12874,7 +12868,7 @@
         <v>89</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
@@ -12885,10 +12879,10 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>31</v>
@@ -12897,7 +12891,7 @@
         <v>89</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
@@ -12908,10 +12902,10 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>31</v>
@@ -12920,7 +12914,7 @@
         <v>89</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
@@ -12931,10 +12925,10 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>31</v>
@@ -12943,7 +12937,7 @@
         <v>89</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12954,10 +12948,10 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>31</v>
@@ -12966,7 +12960,7 @@
         <v>89</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -12977,10 +12971,10 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>31</v>
@@ -12989,7 +12983,7 @@
         <v>89</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -13000,10 +12994,10 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>31</v>
@@ -13012,7 +13006,7 @@
         <v>89</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
@@ -13023,10 +13017,10 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>31</v>
@@ -13035,7 +13029,7 @@
         <v>89</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
@@ -13046,10 +13040,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>31</v>
@@ -13058,7 +13052,7 @@
         <v>89</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -13069,10 +13063,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>31</v>
@@ -13081,7 +13075,7 @@
         <v>233</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
@@ -13092,10 +13086,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>31</v>
@@ -13104,7 +13098,7 @@
         <v>233</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13115,48 +13109,48 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="E524" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C524" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D524" s="2" t="s">
+      <c r="F524" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G524" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="E524" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F524" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D525" s="2" t="s">
+      <c r="E525" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="E525" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F525" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G525" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -2424,7 +2424,7 @@
         <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>99</v>
@@ -2433,7 +2433,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>61</v>
@@ -2470,7 +2470,7 @@
         <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>99</v>
@@ -2493,7 +2493,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>99</v>
@@ -2516,7 +2516,7 @@
         <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>99</v>
@@ -2539,7 +2539,7 @@
         <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>99</v>
@@ -2654,7 +2654,7 @@
         <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>99</v>
@@ -2677,7 +2677,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>99</v>
@@ -2700,7 +2700,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>99</v>
@@ -2723,7 +2723,7 @@
         <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>99</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -4270,7 +4270,7 @@
         <v>121</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>151</v>
@@ -4293,7 +4293,7 @@
         <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>151</v>
@@ -4302,7 +4302,7 @@
         <v>124</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>152</v>
@@ -4799,7 +4799,7 @@
         <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>154</v>
@@ -4822,7 +4822,7 @@
         <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>154</v>
@@ -4831,7 +4831,7 @@
         <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>155</v>
@@ -5328,7 +5328,7 @@
         <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>157</v>
@@ -5351,7 +5351,7 @@
         <v>123</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>157</v>
@@ -5360,7 +5360,7 @@
         <v>124</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>158</v>
@@ -5857,7 +5857,7 @@
         <v>121</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>160</v>
@@ -5880,7 +5880,7 @@
         <v>123</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>160</v>
@@ -5889,7 +5889,7 @@
         <v>124</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>161</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="343">
   <si>
     <t>Sezione</t>
   </si>
@@ -893,10 +893,13 @@
     <t>66,68,70,71,72,195,64,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -13559,7 +13562,7 @@
         <v>290</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>31</v>
@@ -13579,10 +13582,10 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>31</v>
@@ -13591,7 +13594,7 @@
         <v>89</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
@@ -13602,10 +13605,10 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>9</v>
@@ -13614,10 +13617,10 @@
         <v>89</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G544" s="2" t="s">
         <v>61</v>
@@ -13625,10 +13628,10 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>31</v>
@@ -13637,7 +13640,7 @@
         <v>89</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
@@ -13648,10 +13651,10 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
@@ -13660,7 +13663,7 @@
         <v>89</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>10</v>
@@ -13671,10 +13674,10 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>31</v>
@@ -13683,7 +13686,7 @@
         <v>59</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
@@ -13694,10 +13697,10 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>31</v>
@@ -13706,7 +13709,7 @@
         <v>89</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
@@ -13717,10 +13720,10 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>31</v>
@@ -13729,7 +13732,7 @@
         <v>89</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
@@ -13740,10 +13743,10 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>31</v>
@@ -13752,7 +13755,7 @@
         <v>89</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>10</v>
@@ -13763,10 +13766,10 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>31</v>
@@ -13775,7 +13778,7 @@
         <v>89</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>10</v>
@@ -13786,10 +13789,10 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>31</v>
@@ -13798,7 +13801,7 @@
         <v>89</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>10</v>
@@ -13809,10 +13812,10 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>31</v>
@@ -13821,7 +13824,7 @@
         <v>89</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
@@ -13832,10 +13835,10 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>31</v>
@@ -13844,7 +13847,7 @@
         <v>89</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>10</v>
@@ -13855,10 +13858,10 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>31</v>
@@ -13867,7 +13870,7 @@
         <v>89</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>10</v>
@@ -13878,10 +13881,10 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>31</v>
@@ -13890,7 +13893,7 @@
         <v>89</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>10</v>
@@ -13901,10 +13904,10 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>31</v>
@@ -13913,7 +13916,7 @@
         <v>235</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>10</v>
@@ -13924,10 +13927,10 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>31</v>
@@ -13936,7 +13939,7 @@
         <v>235</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>10</v>
@@ -13947,10 +13950,10 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>9</v>
@@ -13959,7 +13962,7 @@
         <v>89</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>10</v>
@@ -13970,10 +13973,10 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>9</v>
@@ -13982,7 +13985,7 @@
         <v>89</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>10</v>
@@ -13993,71 +13996,71 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F562" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G562" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="342">
   <si>
     <t>Sezione</t>
   </si>
@@ -897,9 +897,6 @@
   </si>
   <si>
     <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -13562,7 +13559,7 @@
         <v>290</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>295</v>
+        <v>143</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>31</v>
@@ -13582,10 +13579,10 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B543" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B543" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>31</v>
@@ -13594,7 +13591,7 @@
         <v>89</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
@@ -13605,10 +13602,10 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>9</v>
@@ -13617,10 +13614,10 @@
         <v>89</v>
       </c>
       <c r="E544" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F544" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F544" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G544" s="2" t="s">
         <v>61</v>
@@ -13628,10 +13625,10 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>31</v>
@@ -13640,7 +13637,7 @@
         <v>89</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
@@ -13651,10 +13648,10 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
@@ -13663,7 +13660,7 @@
         <v>89</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>10</v>
@@ -13674,10 +13671,10 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>31</v>
@@ -13686,7 +13683,7 @@
         <v>59</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
@@ -13697,10 +13694,10 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>31</v>
@@ -13709,7 +13706,7 @@
         <v>89</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
@@ -13720,10 +13717,10 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>31</v>
@@ -13732,7 +13729,7 @@
         <v>89</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
@@ -13743,10 +13740,10 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>31</v>
@@ -13755,7 +13752,7 @@
         <v>89</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>10</v>
@@ -13766,10 +13763,10 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>31</v>
@@ -13778,7 +13775,7 @@
         <v>89</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>10</v>
@@ -13789,10 +13786,10 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>31</v>
@@ -13801,7 +13798,7 @@
         <v>89</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>10</v>
@@ -13812,10 +13809,10 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>31</v>
@@ -13824,7 +13821,7 @@
         <v>89</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
@@ -13835,10 +13832,10 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>31</v>
@@ -13847,7 +13844,7 @@
         <v>89</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>10</v>
@@ -13858,10 +13855,10 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>31</v>
@@ -13870,7 +13867,7 @@
         <v>89</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>10</v>
@@ -13881,10 +13878,10 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>31</v>
@@ -13893,7 +13890,7 @@
         <v>89</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>10</v>
@@ -13904,10 +13901,10 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>31</v>
@@ -13916,7 +13913,7 @@
         <v>235</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>10</v>
@@ -13927,10 +13924,10 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>31</v>
@@ -13939,7 +13936,7 @@
         <v>235</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>10</v>
@@ -13950,10 +13947,10 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>9</v>
@@ -13962,7 +13959,7 @@
         <v>89</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>10</v>
@@ -13973,10 +13970,10 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>9</v>
@@ -13985,7 +13982,7 @@
         <v>89</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>10</v>
@@ -13996,71 +13993,71 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B561" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="C561" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D561" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C561" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D561" s="2" t="s">
+      <c r="E561" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E561" s="2" t="s">
+      <c r="F561" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F561" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G561" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E562" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C562" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F562" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E563" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C563" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E563" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="F563" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="343">
   <si>
     <t>Sezione</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -13559,7 +13562,7 @@
         <v>290</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>31</v>
@@ -13579,10 +13582,10 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>31</v>
@@ -13591,7 +13594,7 @@
         <v>89</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
@@ -13602,10 +13605,10 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>9</v>
@@ -13614,10 +13617,10 @@
         <v>89</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G544" s="2" t="s">
         <v>61</v>
@@ -13625,10 +13628,10 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>31</v>
@@ -13637,7 +13640,7 @@
         <v>89</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
@@ -13648,10 +13651,10 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
@@ -13660,7 +13663,7 @@
         <v>89</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>10</v>
@@ -13671,10 +13674,10 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>31</v>
@@ -13683,7 +13686,7 @@
         <v>59</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
@@ -13694,10 +13697,10 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>31</v>
@@ -13706,7 +13709,7 @@
         <v>89</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
@@ -13717,10 +13720,10 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>31</v>
@@ -13729,7 +13732,7 @@
         <v>89</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
@@ -13740,10 +13743,10 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>31</v>
@@ -13752,7 +13755,7 @@
         <v>89</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>10</v>
@@ -13763,10 +13766,10 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>31</v>
@@ -13775,7 +13778,7 @@
         <v>89</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>10</v>
@@ -13786,10 +13789,10 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>31</v>
@@ -13798,7 +13801,7 @@
         <v>89</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>10</v>
@@ -13809,10 +13812,10 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>31</v>
@@ -13821,7 +13824,7 @@
         <v>89</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
@@ -13832,10 +13835,10 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>31</v>
@@ -13844,7 +13847,7 @@
         <v>89</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>10</v>
@@ -13855,10 +13858,10 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>31</v>
@@ -13867,7 +13870,7 @@
         <v>89</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>10</v>
@@ -13878,10 +13881,10 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>31</v>
@@ -13890,7 +13893,7 @@
         <v>89</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>10</v>
@@ -13901,10 +13904,10 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>31</v>
@@ -13913,7 +13916,7 @@
         <v>235</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>10</v>
@@ -13924,10 +13927,10 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>31</v>
@@ -13936,7 +13939,7 @@
         <v>235</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>10</v>
@@ -13947,10 +13950,10 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>9</v>
@@ -13959,7 +13962,7 @@
         <v>89</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>10</v>
@@ -13970,10 +13973,10 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>9</v>
@@ -13982,7 +13985,7 @@
         <v>89</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>10</v>
@@ -13993,71 +13996,71 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F562" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G562" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -15434,7 +15434,7 @@
         <v>125</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D620" s="2" t="s">
         <v>318</v>
@@ -15457,7 +15457,7 @@
         <v>127</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D621" s="2" t="s">
         <v>318</v>
@@ -15466,7 +15466,7 @@
         <v>128</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G621" s="2" t="s">
         <v>320</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="370">
   <si>
     <t>Sezione</t>
   </si>
@@ -1116,6 +1116,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H654"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -16208,6 +16214,29 @@
         <v>363</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
